--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="133">
   <si>
     <t xml:space="preserve">3-axis Controller BOM</t>
   </si>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">3x2 Magnets</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.amazon.co.uk/FINDMAG-Neodymium-Magnets-Whiteboard-Cylinder/dp/B0C81JFZFH/ref=sr_1_5?crid=3BE98RWR5VHRI&amp;dib=eyJ2IjoiMSJ9.Q3_hW-NwP2SLyGPnCovCR5OzBW2l5lkwLVy78NCJpSc7v2SXhqfN4rSFzuKxe11iCOqZ9OtE0deI8FNRXB9xg28KdH9MAhAliSRuHjBLi0_DTrMnb9LKhnOX3swUVzwyYOaco1aqUVTRZMhrRPvFB2v_JhzrcF6SfNYUjHZ0dYT0diAcvO5r__44x1MfHdnBZmq9-AIxN1_3fqtOwvUrQiTxXJqutYtECmp-cn8awVSJcGm3lZuWq-IWcPty_50Smbf8TZvjBpoOF1IT06ILUYejJ2CmPkw8nHwaja_Yed4.nGxfu9YEJlk_TS_rbfaWsEFLKEc43f3hDksugCrWZTI&amp;dib_tag=se&amp;keywords=3x2+magnet&amp;qid=1719329679&amp;sprefix=3x2+magnet%2Caps%2C128&amp;sr=8-5</t>
+    <t xml:space="preserve">https://www.amazon.co.uk/FINDMAG-Magnets-Fridge-Whiteboard-Hobbies/dp/B0C81JFZFH/260-8358626-8297359?th=1</t>
   </si>
   <si>
     <t xml:space="preserve">brass m3 nut</t>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://uk.rs-online.com/web/p/machine-screws/3180632?gb=s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2x8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.rs-online.com/web/p/machine-screws/9141576?gb=s</t>
   </si>
   <si>
     <t xml:space="preserve">Mounting the Delta Stage</t>
@@ -422,11 +428,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -445,11 +452,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -507,20 +509,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,7 +538,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 3" xfId="20"/>
+    <cellStyle name="Accent 3 1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -710,746 +716,760 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.01"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>3.33</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>45.96</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>8.33</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>3.1</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>2.78</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>7.62</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>6.08</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>7.73</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>1.37</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>13.38</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>4.9</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>2.35</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>1.39</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="E22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="E23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>11.42</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="E24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>3.59</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>11.79</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="0" t="s">
+      <c r="E26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>5.32</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>2.9</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G28" s="0" t="s">
+      <c r="E28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>3.79</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="0" t="n">
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="n">
         <v>7.16</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>67</v>
+      <c r="E32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="0" t="n">
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="n">
         <v>13.5</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>69</v>
+      <c r="E33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="0" t="n">
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="n">
         <v>68.49</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>71</v>
+      <c r="G34" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="0" t="n">
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="n">
         <v>6.47</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>73</v>
+      <c r="E35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="0" t="n">
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="n">
         <v>12.84</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>76</v>
+      <c r="E36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="0" t="s">
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>78</v>
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>80</v>
+      <c r="A41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>87</v>
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>89</v>
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>91</v>
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>93</v>
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>95</v>
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>97</v>
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>99</v>
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>101</v>
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>103</v>
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>105</v>
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>107</v>
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>109</v>
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>111</v>
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>113</v>
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>115</v>
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>117</v>
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>119</v>
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>121</v>
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>123</v>
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>125</v>
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>127</v>
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
